--- a/hex文件/中科瑞泰电子软件版本信息_20180823.xlsx
+++ b/hex文件/中科瑞泰电子软件版本信息_20180823.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="138">
   <si>
     <t>HEX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,6 +534,33 @@
   </si>
   <si>
     <t>M-SLLED</t>
+  </si>
+  <si>
+    <t>管理单元：单板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理单元：一体板（集成避温避障板）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainBoard-V07-00-180828</t>
+  </si>
+  <si>
+    <t>支持管理单元一体板；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BZYT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固件不兼容旧的管理单元单板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -608,7 +635,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -624,9 +651,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -649,8 +673,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -956,7 +989,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -992,31 +1025,25 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>64</v>
@@ -1024,12 +1051,12 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>67</v>
@@ -1041,15 +1068,15 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
@@ -1058,46 +1085,46 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="159.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>61</v>
@@ -1106,55 +1133,52 @@
       <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="159.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>86</v>
+      <c r="F9" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>83</v>
+    <row r="10" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>85</v>
@@ -1165,11 +1189,65 @@
       <c r="F11" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>112</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1180,7 +1258,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1219,7 +1299,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="7"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1233,7 +1313,7 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -1249,15 +1329,15 @@
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1272,7 +1352,7 @@
       <c r="E6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1287,7 +1367,7 @@
       <c r="E7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -1302,7 +1382,7 @@
       <c r="E8" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1369,7 +1449,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="7"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1385,7 +1465,7 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -1401,17 +1481,17 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1423,19 +1503,19 @@
       <c r="E6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1450,7 +1530,7 @@
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -1465,7 +1545,7 @@
       <c r="E9" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1482,12 +1562,12 @@
       <c r="E10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F11" s="11"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F12" s="2"/>
@@ -1545,14 +1625,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1566,7 +1646,7 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -1582,7 +1662,7 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -1598,7 +1678,7 @@
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1614,7 +1694,7 @@
       <c r="E6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1626,7 +1706,7 @@
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="11"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1640,7 +1720,7 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="11"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -1654,7 +1734,7 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
@@ -1670,7 +1750,7 @@
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1686,7 +1766,7 @@
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -1702,7 +1782,7 @@
       <c r="E12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1729,7 +1809,7 @@
       <c r="E14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1756,7 +1836,7 @@
       <c r="E16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1810,14 +1890,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1831,7 +1911,7 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -1845,7 +1925,7 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -1861,7 +1941,7 @@
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1876,7 +1956,7 @@
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -1891,7 +1971,7 @@
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -1906,18 +1986,18 @@
       <c r="E8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1948,7 +2028,7 @@
       <c r="E11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1999,14 +2079,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -2020,7 +2100,7 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -2034,7 +2114,7 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -2048,7 +2128,7 @@
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -2060,19 +2140,19 @@
       <c r="E6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="11"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -2084,7 +2164,7 @@
       <c r="E8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -2096,7 +2176,7 @@
       <c r="E9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2164,25 +2244,25 @@
       <c r="E2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F3" s="7"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F4" s="7"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F5" s="7"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F6" s="11"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F7" s="11"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F8" s="11"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F9" s="2"/>
